--- a/Fichiers_excel_Analyse/Matrice audit.xlsx
+++ b/Fichiers_excel_Analyse/Matrice audit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiane/GoogleDrive/Projets_Openclassrooms/Projet_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiane/GoogleDrive/Projets_Openclassrooms/RAHMANISofiane_4_15122020/Fichiers_excel_Analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02839B-D07B-9D40-BA89-2EEB84630A75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477607D-9DDA-DC4F-8315-DFE0448B5E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
@@ -668,12 +668,6 @@
 (deux dernières) </t>
   </si>
   <si>
-    <t xml:space="preserve">Beaucoup de contenu duppliqué 
-nottament sur les div "keywords"
-De plus, il s'agit d'un pratique SEO "blackhat"
-En effet, la balise contient du texte ayant la même couleur que le fond dans le seul but d'ajouter des mots clés </t>
-  </si>
-  <si>
     <t xml:space="preserve">Balise div = "keywords" à absolument
 supprimer sous peine de sanction par 
 le Googlebot </t>
@@ -806,10 +800,6 @@
 Il améliore également la courbe d’apprentissage et la compréhension du site internet par l’utilisateur. 
 Une distinction claire facilite la navigation, apporte plus d'attention aux boutons "call to action" 
 et augmente l'expérience utilisateur en général.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il faut prendre en compte pour la taille de la police le fait que que tous les utilisateurs n'ont pas une vue parfaite.
-De plus, une police adaptée permet une meilleure expérience utilisateur en général </t>
   </si>
   <si>
     <t xml:space="preserve"> La page contact est un "call to action" et doit donc être mise en avant afin d'inciter l'utilisateur à vous contacter </t>
@@ -941,6 +931,16 @@
   <si>
     <t>Supprimer la navbar du formulaire 
 Inutile ici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut prendre en compte pour la taille de la police le fait que tous les utilisateurs n'ont pas une vue parfaite.
+De plus, une police adaptée permet une meilleure expérience utilisateur en général </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaucoup de contenu duppliqué 
+nottament sur les div "keywords"
+De plus, il s'agit d'une pratique SEO "blackhat"
+En effet, la balise contient du texte ayant la même couleur que le fond dans le seul but d'ajouter des mots clés </t>
   </si>
 </sst>
 </file>
@@ -1008,26 +1008,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1035,6 +1015,26 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1161,21 +1161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,7 +1196,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1424,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1005"/>
+  <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A26" zoomScale="54" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1443,54 +1443,54 @@
     <col min="28" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:27" s="45" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1502,13 +1502,13 @@
       <c r="E2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1520,13 +1520,13 @@
       <c r="E3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1538,13 +1538,13 @@
       <c r="E4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:27" ht="272" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1556,13 +1556,13 @@
       <c r="E5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1574,13 +1574,13 @@
       <c r="E6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1592,13 +1592,13 @@
       <c r="E7" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:27" ht="306" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1610,13 +1610,13 @@
       <c r="E8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="39"/>
-    </row>
-    <row r="9" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1628,31 +1628,31 @@
       <c r="E9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:27" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:27" ht="372" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="1:27" ht="372" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1664,13 +1664,13 @@
       <c r="E11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1682,16 +1682,16 @@
       <c r="E12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1703,35 +1703,35 @@
       <c r="E13" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>14</v>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:27" ht="204" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>158</v>
@@ -1739,17 +1739,17 @@
       <c r="E15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:27" ht="170" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>90</v>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>158</v>
@@ -1757,35 +1757,35 @@
       <c r="E16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>84</v>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>27</v>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>138</v>
@@ -1793,17 +1793,17 @@
       <c r="E18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>20</v>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>138</v>
@@ -1811,266 +1811,266 @@
       <c r="E19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>67</v>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="41"/>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="41"/>
-    </row>
-    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>23</v>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="41"/>
-    </row>
-    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>91</v>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>31</v>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>32</v>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="41"/>
-    </row>
-    <row r="26" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="41"/>
-    </row>
-    <row r="28" spans="1:6" ht="238" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>96</v>
+        <v>168</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="43"/>
+        <v>200</v>
+      </c>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>34</v>
+      <c r="B29" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>176</v>
+      <c r="B30" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>180</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>175</v>
+      <c r="B31" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="42"/>
-    </row>
-    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" s="42"/>
-    </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>178</v>
-      </c>
       <c r="C33" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>206</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="41"/>
-    </row>
-    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>182</v>
+      <c r="B34" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>183</v>
@@ -2079,55 +2079,55 @@
         <v>208</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="E35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="B36" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" s="42"/>
-    </row>
-    <row r="36" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="E36" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>188</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>212</v>
@@ -2135,98 +2135,81 @@
       <c r="E37" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>189</v>
+      <c r="B38" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="37"/>
+    </row>
+    <row r="39" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>191</v>
+      <c r="B39" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>195</v>
+      <c r="B41" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="41"/>
-    </row>
-    <row r="42" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="42"/>
-    </row>
+        <v>216</v>
+      </c>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3189,7 +3172,6 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1" xr:uid="{1E7627DF-FFEC-0841-9A9E-08BD5B16B2DC}"/>
@@ -3201,10 +3183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11066E9-0DC1-A942-9E56-E2386F30B0AE}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="57" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3212,8 +3194,8 @@
     <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="22" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="3"/>
@@ -3236,10 +3218,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
@@ -3250,7 +3232,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>147</v>
@@ -3258,11 +3240,11 @@
       <c r="E2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>99</v>
@@ -3276,11 +3258,11 @@
       <c r="E3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -3294,254 +3276,254 @@
       <c r="E4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" ht="137" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="34"/>
+        <v>138</v>
+      </c>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="221" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>147</v>
@@ -3549,71 +3531,89 @@
       <c r="E18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="37"/>
-    </row>
-    <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G16" r:id="rId1" xr:uid="{77E46244-A328-CC4A-ADF9-2CCEFD7BAB67}"/>
   </hyperlinks>
@@ -3638,22 +3638,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3797,12 +3797,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="45">
+        <v>230</v>
+      </c>
+      <c r="B14" s="40">
         <v>260</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="40">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -3812,7 +3812,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="14">
         <v>210</v>
@@ -3826,7 +3826,7 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="14">
